--- a/pred_ohlcv/54_21/2020-01-20 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XVG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1200826.08607469</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1200826.08607469</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1200676.08607469</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1200676.08607469</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1223921.96357469</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1213921.96357469</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1213921.96357469</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1246428.96357469</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1251428.96357469</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1251315.96357469</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1543326.35277469</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1351337.65277469</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1351987.62010206</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2363820.27720206</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2363686.48260206</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2364093.36590206</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2361593.36590206</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2386593.36590206</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3056027.98300206</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3056027.98300206</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3056027.98300206</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3054304.49040206</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3154304.49040206</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3154193.49040206</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4257961.07901635</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4257735.23081635</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-4329242.23081635</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4217760.99731635</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-4251971.83671635</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4251283.18321635</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-4251168.63561635</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5974286.27151635</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5974170.27151635</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-6312027.343216349</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-5641570.986916349</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-5644070.986916349</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XVG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1200826.08607469</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1200826.08607469</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1200676.08607469</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1200676.08607469</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1223921.96357469</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1213921.96357469</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1213921.96357469</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1246428.96357469</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1251428.96357469</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1251315.96357469</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1543326.35277469</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1351337.65277469</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1351987.62010206</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2363820.27720206</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2363686.48260206</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2364093.36590206</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2361593.36590206</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2386593.36590206</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2450109.64430206</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2454993.51190206</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2454993.51190206</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2494869.19920206</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2333374.32540206</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2335367.51120206</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2340367.51120206</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2340367.51120206</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2583333.79550206</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3056027.98300206</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3056027.98300206</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3056027.98300206</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3054304.49040206</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3154304.49040206</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3154193.49040206</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4257961.07901635</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4257735.23081635</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-4329242.23081635</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4217760.99731635</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-4251971.83671635</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4251283.18321635</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-4251168.63561635</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5974286.27151635</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5974170.27151635</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-6312027.343216349</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-5641570.986916349</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-5644070.986916349</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
